--- a/doc/ショッピングカート詳細設計.xlsx
+++ b/doc/ショッピングカート詳細設計.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\WebShoppingApp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -2624,6 +2624,154 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="5021580"/>
+          <a:ext cx="982980" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>num</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4145280" y="4716780"/>
+          <a:ext cx="982980" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>itemId</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3683,6 +3831,75 @@
               </a:solidFill>
             </a:rPr>
             <a:t>カートに入った情報を保持する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="2377440"/>
+          <a:ext cx="2057400" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（カートをセッションに保存する）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4182,7 +4399,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -4199,8 +4416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3779520" y="1790700"/>
-          <a:ext cx="982980" cy="259080"/>
+          <a:off x="3710940" y="1790700"/>
+          <a:ext cx="1051560" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4923,8 +5140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5081,9 +5298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5129,7 +5344,7 @@
   <dimension ref="D7:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5175,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
